--- a/results/delivery_check_results.xlsx
+++ b/results/delivery_check_results.xlsx
@@ -586,17 +586,17 @@
           <t>https://www.ozon.ru/seller/a0035-3335686/</t>
         </is>
       </c>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>срок до 15 дней</t>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>срок более 15 дней</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-12-09 13:51:15</t>
+          <t>2025-12-09 14:04:43</t>
         </is>
       </c>
     </row>
